--- a/data/Map129.xlsx
+++ b/data/Map129.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>自動実行</t>
   </si>
@@ -23,10 +23,16 @@
     <t>シィナ</t>
   </si>
   <si>
+    <t>Sina</t>
+  </si>
+  <si>
     <t>ライム</t>
   </si>
   <si>
     <t>リリー</t>
+  </si>
+  <si>
+    <t>Rewrite     -   Lily</t>
   </si>
   <si>
     <t>イベント</t>
@@ -524,7 +530,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,239 +538,245 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map129.xlsx
+++ b/data/Map129.xlsx
@@ -23,7 +23,7 @@
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>ライム</t>
@@ -32,7 +32,7 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>イベント</t>

--- a/data/Map129.xlsx
+++ b/data/Map129.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>自動実行</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>リリー</t>
@@ -530,7 +533,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,245 +541,254 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map129.xlsx
+++ b/data/Map129.xlsx
@@ -533,7 +533,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,253 +541,379 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
         <v>49</v>
       </c>
     </row>

--- a/data/Map129.xlsx
+++ b/data/Map129.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D7F460-A1F8-4D94-8394-247AFC37A236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>自動実行</t>
   </si>
@@ -195,22 +201,179 @@
   </si>
   <si>
     <t>\n&lt;ライム&gt;リリー！温度上げよう！</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Ahh, that's so nice♥
+Nothing like a bath when you're feeling sweaty.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Haah～...
+You guys, can't we ever have a normal bath?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaa～ Nyahaa～nn♪
+Nya nya nya～ Nyaaa～♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Didn't I tell you not to eat
+in the bath, nya?
+It's disgusting, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Tsk. You're a water type.
+You're in your element. Lighten up, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaa nya～♪
+Nyaa nyaa nyaaa～n♪</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Flip the page with my right hand…</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Pick up the pizza with my left hand…</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Nom nom…</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;It's fine. This is my room after all...
+Which reminds me. No smoking in my room.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Phwaaah!!
+What are you doing! Cut it out-!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ahh, yummy pizza♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Cannonballlll, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Hey!
+You splashed me!
+Don't jump in the bath, you moron!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt; Huh?
+Did you just call me a moron, nya?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Can't you just take a normal, quiet bath?
+You're not a child.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Now you just called me a child, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Meooooow!! You put out my cigarette, nya!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;You mangy cat!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Who're you calling a mangy cat, nya!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Hmmhmm...
+Mix sugar and water in the pot to make syrup...
+Squeeze out the whipped cream...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;How delicious-♥
+I'm going to make this once I'm out of the bath-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Haaaaaah-♥ Baths are the greatest♥
+It was worth it to take over the mansion just for this-.
+Mind if I raise the temperature a bit more?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Not too much. If it's too hot,
+I could melt-.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...Hmm?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;What's that look on your face...
+What are you looking at?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Shina?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;Nyaaa...
+For some reason...
+I feel like I'm being watched, nyan.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;...!
+So you feel it too?</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Eh? Eh? Both of you...?
+Now that you mention it...
+I can feel somebody's gaze...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Even dull little Lime can sense it...
+Just what is going on.</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I get this feeling sometimes.
+It could be my imagination, but I doubt it, nya.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Could it be a ghost-? Eep-!</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;That can't be it, nyan.
+If it were a ghost, I could see it.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;Huh? You can really see ghosts?</t>
+  </si>
+  <si>
+    <t>\n&lt;Shina&gt;I see ghosts.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ah, so like when a cat sometimes stares at
+an empty corner...</t>
+  </si>
+  <si>
+    <t>\n&lt;Lily&gt;So if it's not a ghost, then what could it be...
+I'm getting chills down my spine.</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Lily! Raise the temperature!</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Take a bite!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,28 +381,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -529,19 +708,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="62.140625" customWidth="1"/>
+    <col min="2" max="2" width="75.85546875" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -565,7 +746,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -573,7 +754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -581,354 +762,471 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>47</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>48</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>